--- a/parabolic/2025/09/19/parabolic.xlsx
+++ b/parabolic/2025/09/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>177</v>
       </c>
       <c r="D2" t="n">
-        <v>210100</v>
+        <v>223200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,16 +505,108 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D3" t="n">
-        <v>538400</v>
+        <v>1308000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>160</v>
+      </c>
+      <c r="D4" t="n">
+        <v>359800</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>371</v>
+      </c>
+      <c r="D5" t="n">
+        <v>367200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>699</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" t="n">
+        <v>970300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/19/parabolic.xlsx
+++ b/parabolic/2025/09/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="n">
-        <v>223200</v>
+        <v>259600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>271</v>
+        <v>752</v>
       </c>
       <c r="D3" t="n">
-        <v>1308000</v>
+        <v>156900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="D4" t="n">
-        <v>359800</v>
+        <v>2034000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>371</v>
+        <v>680</v>
       </c>
       <c r="D5" t="n">
-        <v>367200</v>
+        <v>105600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>699</v>
+        <v>161</v>
       </c>
       <c r="D6" t="n">
-        <v>128000</v>
+        <v>492700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,223 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="D7" t="n">
-        <v>970300</v>
+        <v>117900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>6464</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>363</v>
+      </c>
+      <c r="D8" t="n">
+        <v>599200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>6629</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>429</v>
+      </c>
+      <c r="D9" t="n">
+        <v>145200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7600</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>503</v>
+      </c>
+      <c r="D10" t="n">
+        <v>107800</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7727</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>619</v>
+      </c>
+      <c r="D11" t="n">
+        <v>228200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>494</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1442800</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>697</v>
+      </c>
+      <c r="D13" t="n">
+        <v>213900</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>844</v>
+      </c>
+      <c r="D14" t="n">
+        <v>135500</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>152</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2376900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>9876</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>251</v>
+      </c>
+      <c r="D16" t="n">
+        <v>107100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/19/parabolic.xlsx
+++ b/parabolic/2025/09/19/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="n">
-        <v>259600</v>
+        <v>464300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>752</v>
+        <v>494</v>
       </c>
       <c r="D3" t="n">
-        <v>156900</v>
+        <v>428900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>276</v>
+        <v>561</v>
       </c>
       <c r="D4" t="n">
-        <v>2034000</v>
+        <v>291500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4548</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="D5" t="n">
-        <v>105600</v>
+        <v>338300</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4891</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="D6" t="n">
-        <v>492700</v>
+        <v>2485500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>458</v>
+        <v>950</v>
       </c>
       <c r="D7" t="n">
-        <v>117900</v>
+        <v>101600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>363</v>
+        <v>682</v>
       </c>
       <c r="D8" t="n">
-        <v>599200</v>
+        <v>193000</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>4891</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>429</v>
+        <v>163</v>
       </c>
       <c r="D9" t="n">
-        <v>145200</v>
+        <v>557400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="D10" t="n">
-        <v>107800</v>
+        <v>131800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7727</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>619</v>
+        <v>376</v>
       </c>
       <c r="D11" t="n">
-        <v>228200</v>
+        <v>1579000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="D12" t="n">
-        <v>1442800</v>
+        <v>176400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8609</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>697</v>
+        <v>503</v>
       </c>
       <c r="D13" t="n">
-        <v>213900</v>
+        <v>126100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>7727</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>844</v>
+        <v>620</v>
       </c>
       <c r="D14" t="n">
-        <v>135500</v>
+        <v>280500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>8103</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152</v>
+        <v>845</v>
       </c>
       <c r="D15" t="n">
-        <v>2376900</v>
+        <v>223500</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>9876</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,16 +804,108 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>251</v>
+        <v>496</v>
       </c>
       <c r="D16" t="n">
-        <v>107100</v>
+        <v>1821300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>696</v>
+      </c>
+      <c r="D17" t="n">
+        <v>513700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>8841</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>845</v>
+      </c>
+      <c r="D18" t="n">
+        <v>217800</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>9424</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>150</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2949200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9876</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>252</v>
+      </c>
+      <c r="D20" t="n">
+        <v>119400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
